--- a/ddj_1000/9 - Extras/2 - Technical info/DDJ Mappings - Detailed reference.xlsx
+++ b/ddj_1000/9 - Extras/2 - Technical info/DDJ Mappings - Detailed reference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="13770" windowHeight="6675" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="13770" windowHeight="6675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DDJ-1000" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="636">
   <si>
     <t>Section DECK</t>
   </si>
@@ -958,9 +958,6 @@
       </rPr>
       <t>toggle</t>
     </r>
-  </si>
-  <si>
-    <t>select beatjump half/double</t>
   </si>
   <si>
     <t>SEARCH &lt;&lt;</t>
@@ -1300,9 +1297,6 @@
   </si>
   <si>
     <t>MixerFX: Double Delay</t>
-  </si>
-  <si>
-    <t>next track; long press search</t>
   </si>
   <si>
     <t>scratch/bend</t>
@@ -2008,6 +2002,30 @@
   </si>
   <si>
     <t>Clear effects</t>
+  </si>
+  <si>
+    <t>long press: continuous search</t>
+  </si>
+  <si>
+    <t>select beatjump size</t>
+  </si>
+  <si>
+    <t>tap: beatjump 4</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous: search </t>
+  </si>
+  <si>
+    <t>playing + tap: next track</t>
+  </si>
+  <si>
+    <t>search &gt;&gt;</t>
+  </si>
+  <si>
+    <t>stopped + tap: frame search</t>
   </si>
 </sst>
 </file>
@@ -3093,6 +3111,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3125,33 +3170,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3510,7 +3528,7 @@
     </row>
     <row r="3" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>89</v>
@@ -3522,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I3" s="140" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,10 +3607,10 @@
     <row r="8" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
@@ -3617,7 +3635,7 @@
         <v>225</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>231</v>
@@ -3784,7 +3802,7 @@
         <v>+Memory</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J25" s="53"/>
     </row>
@@ -3810,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="58" t="s">
         <v>369</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>370</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
@@ -3825,7 +3843,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>34</v>
@@ -3845,14 +3863,14 @@
         <v>138</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="61"/>
       <c r="I29" s="68" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J29" s="53"/>
     </row>
@@ -3873,7 +3891,7 @@
         <v>220</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G31" s="61"/>
       <c r="H31" s="61"/>
@@ -3945,10 +3963,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F36" s="58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G36" s="61"/>
       <c r="H36" s="61"/>
@@ -3998,10 +4016,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G40" s="61"/>
       <c r="H40" s="61"/>
@@ -4051,10 +4069,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G44" s="61"/>
       <c r="H44" s="61"/>
@@ -4065,10 +4083,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G45" s="61"/>
       <c r="H45" s="61"/>
@@ -4082,7 +4100,7 @@
         <v>40</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G46" s="61"/>
       <c r="H46" s="61"/>
@@ -4094,13 +4112,13 @@
         <v>19</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H47" s="61"/>
       <c r="I47" s="61"/>
@@ -4123,12 +4141,12 @@
         <v>218</v>
       </c>
       <c r="F49" s="71" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G49" s="61"/>
       <c r="H49" s="61"/>
       <c r="I49" s="68" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J49" s="53"/>
     </row>
@@ -4141,7 +4159,7 @@
         <v>166</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G50" s="61"/>
       <c r="H50" s="61"/>
@@ -4160,7 +4178,7 @@
         <v>219</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
@@ -4202,10 +4220,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G54" s="61"/>
       <c r="H54" s="61"/>
@@ -4217,10 +4235,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
@@ -4232,10 +4250,10 @@
         <v>23</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F56" s="66" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G56" s="61"/>
       <c r="H56" s="61"/>
@@ -4246,7 +4264,7 @@
         <v>24</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F57" s="66" t="s">
         <v>69</v>
@@ -4260,10 +4278,10 @@
         <v>25</v>
       </c>
       <c r="E58" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="F58" s="70" t="s">
         <v>381</v>
-      </c>
-      <c r="F58" s="70" t="s">
-        <v>382</v>
       </c>
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
@@ -4297,7 +4315,7 @@
         <v>+Memory</v>
       </c>
       <c r="I62" s="57" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J62" s="53"/>
     </row>
@@ -4306,10 +4324,10 @@
         <v>26</v>
       </c>
       <c r="E63" s="59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" s="65" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G63" s="65"/>
       <c r="H63" s="65"/>
@@ -4324,13 +4342,13 @@
         <v>142</v>
       </c>
       <c r="F64" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="H64" s="58" t="s">
         <v>473</v>
-      </c>
-      <c r="G64" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="H64" s="58" t="s">
-        <v>475</v>
       </c>
       <c r="I64" s="65"/>
       <c r="J64" s="53"/>
@@ -4347,7 +4365,7 @@
       </c>
       <c r="G65" s="65"/>
       <c r="H65" s="58" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I65" s="65"/>
       <c r="J65" s="53"/>
@@ -4595,7 +4613,7 @@
         <v>145</v>
       </c>
       <c r="F82" s="58" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G82" s="65"/>
       <c r="H82" s="65"/>
@@ -4606,7 +4624,7 @@
       <c r="D83" s="58"/>
       <c r="E83" s="65"/>
       <c r="F83" s="58" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G83" s="65"/>
       <c r="H83" s="65"/>
@@ -4642,16 +4660,16 @@
         <v>31</v>
       </c>
       <c r="E86" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="F86" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>366</v>
       </c>
       <c r="G86" s="62" t="s">
         <v>148</v>
       </c>
       <c r="H86" s="74" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I86" s="65"/>
       <c r="J86" s="53"/>
@@ -4697,13 +4715,13 @@
         <v>90</v>
       </c>
       <c r="I92" s="57" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J92" s="53"/>
     </row>
     <row r="93" spans="4:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E93" s="77" t="s">
         <v>91</v>
@@ -4716,7 +4734,7 @@
       <c r="I93" s="65"/>
       <c r="J93" s="53"/>
       <c r="L93" s="51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="4:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4727,7 +4745,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G94" s="65"/>
       <c r="H94" s="65"/>
@@ -4754,11 +4772,11 @@
         <v>11</v>
       </c>
       <c r="G96" s="58" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H96" s="65"/>
       <c r="I96" s="68" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J96" s="53"/>
     </row>
@@ -4784,19 +4802,19 @@
         <v>34</v>
       </c>
       <c r="E98" s="59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F98" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G98" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H98" s="58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I98" s="58" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J98" s="53"/>
     </row>
@@ -4805,19 +4823,19 @@
         <v>34</v>
       </c>
       <c r="E99" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F99" s="58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G99" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H99" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I99" s="58" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4828,35 +4846,35 @@
         <v>101</v>
       </c>
       <c r="F100" s="58" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G100" s="58" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H100" s="65"/>
       <c r="I100" s="68" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K100" s="78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L100" s="79"/>
       <c r="M100" s="80" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N100" s="81"/>
       <c r="O100" s="82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P100" s="83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="58"/>
       <c r="E101" s="65"/>
       <c r="F101" s="58" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G101" s="65"/>
       <c r="H101" s="65"/>
@@ -4876,7 +4894,7 @@
         <v>99</v>
       </c>
       <c r="F102" s="58" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G102" s="62" t="s">
         <v>100</v>
@@ -4889,10 +4907,10 @@
       </c>
       <c r="N102" s="85"/>
       <c r="O102" s="86" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="P102" s="87" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4903,26 +4921,26 @@
       <c r="H103" s="65"/>
       <c r="I103" s="65"/>
       <c r="L103" s="88"/>
-      <c r="M103" s="145"/>
-      <c r="N103" s="146"/>
-      <c r="O103" s="146"/>
-      <c r="P103" s="147"/>
+      <c r="M103" s="154"/>
+      <c r="N103" s="155"/>
+      <c r="O103" s="155"/>
+      <c r="P103" s="156"/>
     </row>
     <row r="104" spans="4:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="158">
+      <c r="D104" s="150">
         <v>38</v>
       </c>
-      <c r="E104" s="156" t="s">
+      <c r="E104" s="152" t="s">
         <v>129</v>
       </c>
       <c r="F104" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="G104" s="158" t="s">
+        <v>506</v>
+      </c>
+      <c r="G104" s="150" t="s">
+        <v>514</v>
+      </c>
+      <c r="H104" s="150" t="s">
         <v>516</v>
-      </c>
-      <c r="H104" s="158" t="s">
-        <v>518</v>
       </c>
       <c r="I104" s="65"/>
       <c r="L104" s="86"/>
@@ -4932,30 +4950,30 @@
       <c r="P104" s="85"/>
     </row>
     <row r="105" spans="4:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="159"/>
-      <c r="E105" s="157"/>
+      <c r="D105" s="151"/>
+      <c r="E105" s="153"/>
       <c r="F105" s="58" t="s">
-        <v>512</v>
-      </c>
-      <c r="G105" s="159"/>
-      <c r="H105" s="159"/>
+        <v>510</v>
+      </c>
+      <c r="G105" s="151"/>
+      <c r="H105" s="151"/>
       <c r="I105" s="65"/>
     </row>
     <row r="106" spans="4:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="158">
+      <c r="D106" s="150">
         <v>39</v>
       </c>
-      <c r="E106" s="156" t="s">
-        <v>509</v>
+      <c r="E106" s="152" t="s">
+        <v>507</v>
       </c>
       <c r="F106" s="58" t="s">
-        <v>510</v>
-      </c>
-      <c r="G106" s="158" t="s">
+        <v>508</v>
+      </c>
+      <c r="G106" s="150" t="s">
+        <v>515</v>
+      </c>
+      <c r="H106" s="150" t="s">
         <v>517</v>
-      </c>
-      <c r="H106" s="158" t="s">
-        <v>519</v>
       </c>
       <c r="I106" s="65"/>
       <c r="L106" s="86"/>
@@ -4965,30 +4983,30 @@
       <c r="P106" s="85"/>
     </row>
     <row r="107" spans="4:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="159"/>
-      <c r="E107" s="157"/>
+      <c r="D107" s="151"/>
+      <c r="E107" s="153"/>
       <c r="F107" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="G107" s="151"/>
+      <c r="H107" s="151"/>
+      <c r="I107" s="65"/>
+    </row>
+    <row r="108" spans="4:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="150">
+        <v>40</v>
+      </c>
+      <c r="E108" s="152" t="s">
+        <v>327</v>
+      </c>
+      <c r="F108" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="G107" s="159"/>
-      <c r="H107" s="159"/>
-      <c r="I107" s="65"/>
-    </row>
-    <row r="108" spans="4:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="158">
-        <v>40</v>
-      </c>
-      <c r="E108" s="156" t="s">
-        <v>328</v>
-      </c>
-      <c r="F108" s="58" t="s">
+      <c r="G108" s="150" t="s">
         <v>513</v>
       </c>
-      <c r="G108" s="158" t="s">
-        <v>515</v>
-      </c>
-      <c r="H108" s="158" t="s">
-        <v>520</v>
+      <c r="H108" s="150" t="s">
+        <v>518</v>
       </c>
       <c r="I108" s="65"/>
       <c r="L108" s="86"/>
@@ -4998,13 +5016,13 @@
       <c r="P108" s="85"/>
     </row>
     <row r="109" spans="4:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="159"/>
-      <c r="E109" s="157"/>
+      <c r="D109" s="151"/>
+      <c r="E109" s="153"/>
       <c r="F109" s="58" t="s">
-        <v>514</v>
-      </c>
-      <c r="G109" s="159"/>
-      <c r="H109" s="159"/>
+        <v>512</v>
+      </c>
+      <c r="G109" s="151"/>
+      <c r="H109" s="151"/>
       <c r="I109" s="65"/>
     </row>
     <row r="110" spans="4:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5015,20 +5033,20 @@
       <c r="H110" s="65"/>
       <c r="I110" s="65"/>
       <c r="K110" s="78" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L110" s="79"/>
       <c r="M110" s="80" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N110" s="81" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O110" s="82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P110" s="83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5048,19 +5066,19 @@
       <c r="I111" s="65"/>
       <c r="J111" s="53"/>
       <c r="L111" s="78" t="s">
+        <v>482</v>
+      </c>
+      <c r="M111" s="84" t="s">
         <v>484</v>
       </c>
-      <c r="M111" s="84" t="s">
-        <v>486</v>
-      </c>
       <c r="N111" s="86" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O111" s="85" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P111" s="87" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5080,14 +5098,14 @@
       <c r="I112" s="65"/>
       <c r="J112" s="53"/>
       <c r="L112" s="88" t="s">
-        <v>479</v>
-      </c>
-      <c r="M112" s="145" t="s">
-        <v>501</v>
-      </c>
-      <c r="N112" s="146"/>
-      <c r="O112" s="146"/>
-      <c r="P112" s="147"/>
+        <v>477</v>
+      </c>
+      <c r="M112" s="154" t="s">
+        <v>499</v>
+      </c>
+      <c r="N112" s="155"/>
+      <c r="O112" s="155"/>
+      <c r="P112" s="156"/>
     </row>
     <row r="113" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="58"/>
@@ -5130,7 +5148,7 @@
       <c r="I115" s="65"/>
       <c r="J115" s="53"/>
       <c r="K115" s="78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L115" s="80"/>
       <c r="M115" s="80" t="str">
@@ -5155,10 +5173,10 @@
         <v>44</v>
       </c>
       <c r="E116" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="F116" s="90" t="s">
         <v>387</v>
-      </c>
-      <c r="F116" s="90" t="s">
-        <v>388</v>
       </c>
       <c r="G116" s="65"/>
       <c r="H116" s="65"/>
@@ -5166,19 +5184,19 @@
       <c r="J116" s="53"/>
       <c r="K116" s="91"/>
       <c r="L116" s="92" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M116" s="92" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N116" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="O116" s="148" t="s">
-        <v>497</v>
-      </c>
-      <c r="P116" s="150" t="s">
-        <v>496</v>
+        <v>502</v>
+      </c>
+      <c r="O116" s="157" t="s">
+        <v>495</v>
+      </c>
+      <c r="P116" s="159" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5191,35 +5209,35 @@
       <c r="J117" s="53"/>
       <c r="K117" s="93"/>
       <c r="L117" s="88" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M117" s="93" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="N117" s="94" t="s">
-        <v>490</v>
-      </c>
-      <c r="O117" s="149"/>
-      <c r="P117" s="151"/>
+        <v>488</v>
+      </c>
+      <c r="O117" s="158"/>
+      <c r="P117" s="160"/>
     </row>
     <row r="118" spans="4:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="58">
         <v>45</v>
       </c>
       <c r="E118" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F118" s="58" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G118" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="H118" s="95" t="s">
+        <v>599</v>
+      </c>
+      <c r="I118" s="68" t="s">
         <v>600</v>
-      </c>
-      <c r="H118" s="95" t="s">
-        <v>601</v>
-      </c>
-      <c r="I118" s="68" t="s">
-        <v>602</v>
       </c>
       <c r="J118" s="53"/>
     </row>
@@ -5228,10 +5246,10 @@
         <v>45</v>
       </c>
       <c r="E119" s="96" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F119" s="58" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G119" s="65"/>
       <c r="H119" s="65"/>
@@ -5258,7 +5276,7 @@
         <v>108</v>
       </c>
       <c r="G121" s="58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H121" s="65"/>
       <c r="I121" s="65"/>
@@ -5279,7 +5297,7 @@
       </c>
       <c r="H122" s="65"/>
       <c r="I122" s="68" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J122" s="53"/>
     </row>
@@ -5331,13 +5349,13 @@
         <v>50</v>
       </c>
       <c r="E126" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F126" s="58" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G126" s="58" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H126" s="65"/>
       <c r="I126" s="65"/>
@@ -5348,10 +5366,10 @@
         <v>51</v>
       </c>
       <c r="E127" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F127" s="58" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G127" s="65"/>
       <c r="H127" s="65"/>
@@ -5363,10 +5381,10 @@
         <v>51</v>
       </c>
       <c r="E128" s="99" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F128" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G128" s="65"/>
       <c r="H128" s="65"/>
@@ -5378,13 +5396,13 @@
         <v>52</v>
       </c>
       <c r="E129" s="99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F129" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G129" s="66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H129" s="65"/>
       <c r="I129" s="65"/>
@@ -5395,7 +5413,7 @@
         <v>53</v>
       </c>
       <c r="E130" s="59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F130" s="58" t="s">
         <v>109</v>
@@ -5407,7 +5425,7 @@
         <v>16</v>
       </c>
       <c r="I130" s="68" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J130" s="53"/>
     </row>
@@ -5416,7 +5434,7 @@
         <v>53</v>
       </c>
       <c r="E131" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F131" s="62" t="s">
         <v>110</v>
@@ -5507,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="I137" s="57" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="4:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5541,7 +5559,7 @@
     <row r="140" spans="4:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="58"/>
       <c r="E140" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F140" s="62" t="s">
         <v>124</v>
@@ -5604,7 +5622,7 @@
         <v>128</v>
       </c>
       <c r="F144" s="58" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G144" s="58" t="s">
         <v>22</v>
@@ -5707,7 +5725,7 @@
       <c r="D155" s="54"/>
       <c r="E155" s="55"/>
       <c r="F155" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G155" s="55"/>
       <c r="H155" s="53"/>
@@ -5910,7 +5928,7 @@
       <c r="D170" s="107"/>
       <c r="E170" s="108"/>
       <c r="F170" s="109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G170" s="108"/>
       <c r="H170" s="53"/>
@@ -6452,23 +6470,23 @@
       <c r="J211" s="53"/>
     </row>
     <row r="212" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D212" s="152"/>
-      <c r="E212" s="154"/>
+      <c r="D212" s="161"/>
+      <c r="E212" s="163"/>
       <c r="F212" s="109" t="s">
-        <v>349</v>
-      </c>
-      <c r="G212" s="154"/>
+        <v>348</v>
+      </c>
+      <c r="G212" s="163"/>
       <c r="H212" s="53"/>
       <c r="I212" s="53"/>
       <c r="J212" s="53"/>
     </row>
     <row r="213" spans="4:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="153"/>
-      <c r="E213" s="155"/>
+      <c r="D213" s="162"/>
+      <c r="E213" s="164"/>
       <c r="F213" s="122" t="s">
-        <v>350</v>
-      </c>
-      <c r="G213" s="155"/>
+        <v>349</v>
+      </c>
+      <c r="G213" s="164"/>
       <c r="H213" s="53"/>
       <c r="I213" s="53"/>
       <c r="J213" s="53"/>
@@ -6490,11 +6508,11 @@
     </row>
     <row r="215" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D215" s="58"/>
-      <c r="E215" s="160" t="s">
+      <c r="E215" s="147" t="s">
         <v>54</v>
       </c>
       <c r="F215" s="124" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G215" s="125"/>
       <c r="H215" s="53"/>
@@ -6503,9 +6521,9 @@
     </row>
     <row r="216" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D216" s="58"/>
-      <c r="E216" s="161"/>
+      <c r="E216" s="148"/>
       <c r="F216" s="126" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G216" s="125"/>
       <c r="H216" s="53"/>
@@ -6514,9 +6532,9 @@
     </row>
     <row r="217" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D217" s="58"/>
-      <c r="E217" s="161"/>
+      <c r="E217" s="148"/>
       <c r="F217" s="126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G217" s="125"/>
       <c r="H217" s="53"/>
@@ -6525,9 +6543,9 @@
     </row>
     <row r="218" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D218" s="58"/>
-      <c r="E218" s="162"/>
+      <c r="E218" s="149"/>
       <c r="F218" s="126" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G218" s="125"/>
       <c r="H218" s="53"/>
@@ -6536,11 +6554,11 @@
     </row>
     <row r="219" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D219" s="58"/>
-      <c r="E219" s="160" t="s">
-        <v>543</v>
+      <c r="E219" s="147" t="s">
+        <v>541</v>
       </c>
       <c r="F219" s="124" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G219" s="125"/>
       <c r="H219" s="53"/>
@@ -6549,9 +6567,9 @@
     </row>
     <row r="220" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="58"/>
-      <c r="E220" s="161"/>
+      <c r="E220" s="148"/>
       <c r="F220" s="126" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G220" s="125"/>
       <c r="H220" s="53"/>
@@ -6560,9 +6578,9 @@
     </row>
     <row r="221" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D221" s="58"/>
-      <c r="E221" s="161"/>
+      <c r="E221" s="148"/>
       <c r="F221" s="126" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G221" s="125"/>
       <c r="H221" s="53"/>
@@ -6571,9 +6589,9 @@
     </row>
     <row r="222" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D222" s="58"/>
-      <c r="E222" s="162"/>
+      <c r="E222" s="149"/>
       <c r="F222" s="127" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G222" s="125"/>
       <c r="H222" s="53"/>
@@ -6582,11 +6600,11 @@
     </row>
     <row r="223" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D223" s="58"/>
-      <c r="E223" s="160" t="s">
-        <v>542</v>
+      <c r="E223" s="147" t="s">
+        <v>540</v>
       </c>
       <c r="F223" s="126" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G223" s="125"/>
       <c r="H223" s="53"/>
@@ -6595,9 +6613,9 @@
     </row>
     <row r="224" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D224" s="58"/>
-      <c r="E224" s="161"/>
+      <c r="E224" s="148"/>
       <c r="F224" s="126" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G224" s="125"/>
       <c r="H224" s="53"/>
@@ -6606,9 +6624,9 @@
     </row>
     <row r="225" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D225" s="58"/>
-      <c r="E225" s="161"/>
+      <c r="E225" s="148"/>
       <c r="F225" s="126" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G225" s="125"/>
       <c r="H225" s="53"/>
@@ -6617,9 +6635,9 @@
     </row>
     <row r="226" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D226" s="58"/>
-      <c r="E226" s="162"/>
+      <c r="E226" s="149"/>
       <c r="F226" s="126" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G226" s="125"/>
       <c r="H226" s="53"/>
@@ -6628,11 +6646,11 @@
     </row>
     <row r="227" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D227" s="58"/>
-      <c r="E227" s="160" t="s">
+      <c r="E227" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="F227" s="163" t="s">
-        <v>552</v>
+      <c r="F227" s="145" t="s">
+        <v>550</v>
       </c>
       <c r="G227" s="125"/>
       <c r="H227" s="53"/>
@@ -6641,8 +6659,8 @@
     </row>
     <row r="228" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D228" s="58"/>
-      <c r="E228" s="161"/>
-      <c r="F228" s="164"/>
+      <c r="E228" s="148"/>
+      <c r="F228" s="146"/>
       <c r="G228" s="125"/>
       <c r="H228" s="53"/>
       <c r="I228" s="53"/>
@@ -6650,9 +6668,9 @@
     </row>
     <row r="229" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D229" s="58"/>
-      <c r="E229" s="161"/>
+      <c r="E229" s="148"/>
       <c r="F229" s="126" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G229" s="125"/>
       <c r="H229" s="53"/>
@@ -6661,9 +6679,9 @@
     </row>
     <row r="230" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D230" s="58"/>
-      <c r="E230" s="162"/>
+      <c r="E230" s="149"/>
       <c r="F230" s="127" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G230" s="125"/>
       <c r="H230" s="53"/>
@@ -6672,11 +6690,11 @@
     </row>
     <row r="231" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D231" s="58"/>
-      <c r="E231" s="160" t="s">
+      <c r="E231" s="147" t="s">
         <v>44</v>
       </c>
       <c r="F231" s="126" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G231" s="125"/>
       <c r="H231" s="53"/>
@@ -6685,9 +6703,9 @@
     </row>
     <row r="232" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D232" s="58"/>
-      <c r="E232" s="161"/>
+      <c r="E232" s="148"/>
       <c r="F232" s="126" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G232" s="125"/>
       <c r="H232" s="53"/>
@@ -6696,9 +6714,9 @@
     </row>
     <row r="233" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D233" s="58"/>
-      <c r="E233" s="161"/>
+      <c r="E233" s="148"/>
       <c r="F233" s="126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G233" s="125"/>
       <c r="H233" s="53"/>
@@ -6707,9 +6725,9 @@
     </row>
     <row r="234" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D234" s="58"/>
-      <c r="E234" s="162"/>
+      <c r="E234" s="149"/>
       <c r="F234" s="126" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G234" s="125"/>
       <c r="H234" s="53"/>
@@ -6718,11 +6736,11 @@
     </row>
     <row r="235" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D235" s="58"/>
-      <c r="E235" s="160" t="s">
+      <c r="E235" s="147" t="s">
         <v>46</v>
       </c>
       <c r="F235" s="124" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G235" s="125"/>
       <c r="H235" s="53"/>
@@ -6731,9 +6749,9 @@
     </row>
     <row r="236" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D236" s="58"/>
-      <c r="E236" s="161"/>
+      <c r="E236" s="148"/>
       <c r="F236" s="126" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G236" s="125"/>
       <c r="H236" s="53"/>
@@ -6742,9 +6760,9 @@
     </row>
     <row r="237" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D237" s="58"/>
-      <c r="E237" s="161"/>
+      <c r="E237" s="148"/>
       <c r="F237" s="126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G237" s="125"/>
       <c r="H237" s="53"/>
@@ -6753,9 +6771,9 @@
     </row>
     <row r="238" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D238" s="58"/>
-      <c r="E238" s="162"/>
+      <c r="E238" s="149"/>
       <c r="F238" s="127" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G238" s="125"/>
       <c r="H238" s="53"/>
@@ -6764,11 +6782,11 @@
     </row>
     <row r="239" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D239" s="58"/>
-      <c r="E239" s="160" t="s">
+      <c r="E239" s="147" t="s">
         <v>48</v>
       </c>
       <c r="F239" s="126" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G239" s="125"/>
       <c r="H239" s="53"/>
@@ -6777,9 +6795,9 @@
     </row>
     <row r="240" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D240" s="58"/>
-      <c r="E240" s="161"/>
+      <c r="E240" s="148"/>
       <c r="F240" s="126" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G240" s="125"/>
       <c r="H240" s="53"/>
@@ -6788,9 +6806,9 @@
     </row>
     <row r="241" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D241" s="58"/>
-      <c r="E241" s="161"/>
+      <c r="E241" s="148"/>
       <c r="F241" s="126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G241" s="125"/>
       <c r="H241" s="53"/>
@@ -6799,9 +6817,9 @@
     </row>
     <row r="242" spans="4:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D242" s="58"/>
-      <c r="E242" s="162"/>
+      <c r="E242" s="149"/>
       <c r="F242" s="127" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G242" s="125"/>
       <c r="H242" s="53"/>
@@ -6814,7 +6832,7 @@
         <v>50</v>
       </c>
       <c r="F243" s="128" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G243" s="61"/>
       <c r="H243" s="53"/>
@@ -6850,7 +6868,7 @@
       <c r="D247" s="107"/>
       <c r="E247" s="108"/>
       <c r="F247" s="109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G247" s="108"/>
       <c r="H247" s="53"/>
@@ -6948,7 +6966,7 @@
         <v>48</v>
       </c>
       <c r="F255" s="130" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G255" s="61"/>
       <c r="H255" s="53"/>
@@ -6960,7 +6978,7 @@
         <v>50</v>
       </c>
       <c r="F256" s="131" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G256" s="61"/>
       <c r="H256" s="53"/>
@@ -7006,7 +7024,7 @@
       <c r="D261" s="132"/>
       <c r="E261" s="133"/>
       <c r="F261" s="133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G261" s="134"/>
       <c r="H261" s="53"/>
@@ -7199,7 +7217,7 @@
       <c r="D276" s="107"/>
       <c r="E276" s="108"/>
       <c r="F276" s="137" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G276" s="108"/>
       <c r="H276" s="53"/>
@@ -7211,10 +7229,10 @@
         <v>89</v>
       </c>
       <c r="F277" s="57" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G277" s="57" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H277" s="53"/>
       <c r="I277" s="53"/>
@@ -7225,10 +7243,10 @@
         <v>54</v>
       </c>
       <c r="F278" s="138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G278" s="138" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H278" s="53"/>
       <c r="I278" s="53"/>
@@ -7239,10 +7257,10 @@
         <v>57</v>
       </c>
       <c r="F279" s="138" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G279" s="138" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H279" s="53"/>
       <c r="I279" s="53"/>
@@ -7253,10 +7271,10 @@
         <v>59</v>
       </c>
       <c r="F280" s="138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G280" s="138" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H280" s="53"/>
       <c r="I280" s="53"/>
@@ -7267,10 +7285,10 @@
         <v>42</v>
       </c>
       <c r="F281" s="138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G281" s="138" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H281" s="53"/>
       <c r="I281" s="53"/>
@@ -7281,10 +7299,10 @@
         <v>44</v>
       </c>
       <c r="F282" s="138" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G282" s="138" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H282" s="53"/>
       <c r="I282" s="53"/>
@@ -7295,10 +7313,10 @@
         <v>46</v>
       </c>
       <c r="F283" s="138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G283" s="138" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H283" s="53"/>
       <c r="I283" s="53"/>
@@ -7309,10 +7327,10 @@
         <v>48</v>
       </c>
       <c r="F284" s="138" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G284" s="138" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H284" s="53"/>
       <c r="I284" s="53"/>
@@ -7323,10 +7341,10 @@
         <v>50</v>
       </c>
       <c r="F285" s="138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G285" s="138" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H285" s="53"/>
       <c r="I285" s="53"/>
@@ -7337,7 +7355,7 @@
         <v>53</v>
       </c>
       <c r="F286" s="138" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G286" s="61"/>
       <c r="H286" s="53"/>
@@ -7349,7 +7367,7 @@
         <v>52</v>
       </c>
       <c r="F287" s="138" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G287" s="61"/>
     </row>
@@ -7364,7 +7382,7 @@
       <c r="D290" s="107"/>
       <c r="E290" s="108"/>
       <c r="F290" s="109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G290" s="108"/>
       <c r="H290" s="53"/>
@@ -7540,7 +7558,7 @@
       <c r="D304" s="107"/>
       <c r="E304" s="108"/>
       <c r="F304" s="109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G304" s="108"/>
       <c r="H304" s="53"/>
@@ -7553,7 +7571,7 @@
         <v>89</v>
       </c>
       <c r="F305" s="57" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G305" s="57" t="s">
         <v>2</v>
@@ -7568,10 +7586,10 @@
         <v>54</v>
       </c>
       <c r="F306" s="58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G306" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H306" s="53"/>
       <c r="I306" s="53"/>
@@ -7583,10 +7601,10 @@
         <v>57</v>
       </c>
       <c r="F307" s="58" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G307" s="58" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H307" s="53"/>
       <c r="I307" s="53"/>
@@ -7598,10 +7616,10 @@
         <v>59</v>
       </c>
       <c r="F308" s="58" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G308" s="58" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H308" s="53"/>
       <c r="I308" s="53"/>
@@ -7613,10 +7631,10 @@
         <v>42</v>
       </c>
       <c r="F309" s="58" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G309" s="58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H309" s="53"/>
       <c r="I309" s="53"/>
@@ -7628,10 +7646,10 @@
         <v>44</v>
       </c>
       <c r="F310" s="58" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G310" s="58" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H310" s="53"/>
       <c r="I310" s="53"/>
@@ -7643,10 +7661,10 @@
         <v>46</v>
       </c>
       <c r="F311" s="58" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G311" s="58" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H311" s="53"/>
       <c r="I311" s="53"/>
@@ -7658,10 +7676,10 @@
         <v>48</v>
       </c>
       <c r="F312" s="58" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G312" s="58" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H312" s="53"/>
       <c r="I312" s="53"/>
@@ -7673,10 +7691,10 @@
         <v>50</v>
       </c>
       <c r="F313" s="58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G313" s="58" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H313" s="53"/>
       <c r="I313" s="53"/>
@@ -7709,7 +7727,7 @@
       <c r="D317" s="107"/>
       <c r="E317" s="108"/>
       <c r="F317" s="109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G317" s="108"/>
       <c r="H317" s="53"/>
@@ -7737,10 +7755,10 @@
         <v>54</v>
       </c>
       <c r="F319" s="58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G319" s="58" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H319" s="53"/>
       <c r="I319" s="53"/>
@@ -7752,10 +7770,10 @@
         <v>57</v>
       </c>
       <c r="F320" s="58" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G320" s="58" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H320" s="53"/>
       <c r="I320" s="53"/>
@@ -7767,10 +7785,10 @@
         <v>59</v>
       </c>
       <c r="F321" s="58" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G321" s="58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H321" s="53"/>
       <c r="I321" s="53"/>
@@ -7782,10 +7800,10 @@
         <v>42</v>
       </c>
       <c r="F322" s="58" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G322" s="58" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H322" s="53"/>
       <c r="I322" s="53"/>
@@ -7797,10 +7815,10 @@
         <v>44</v>
       </c>
       <c r="F323" s="58" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G323" s="58" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H323" s="53"/>
       <c r="I323" s="53"/>
@@ -7812,10 +7830,10 @@
         <v>46</v>
       </c>
       <c r="F324" s="58" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G324" s="58" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H324" s="53"/>
       <c r="I324" s="53"/>
@@ -7827,10 +7845,10 @@
         <v>48</v>
       </c>
       <c r="F325" s="58" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G325" s="58" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H325" s="53"/>
       <c r="I325" s="53"/>
@@ -7842,10 +7860,10 @@
         <v>50</v>
       </c>
       <c r="F326" s="58" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G326" s="58" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H326" s="53"/>
       <c r="I326" s="53"/>
@@ -7878,7 +7896,7 @@
       <c r="D332" s="107"/>
       <c r="E332" s="108"/>
       <c r="F332" s="109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G332" s="108"/>
       <c r="H332" s="53"/>
@@ -7908,7 +7926,7 @@
         <v>218</v>
       </c>
       <c r="F334" s="71" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G334" s="139"/>
       <c r="H334" s="53"/>
@@ -7923,7 +7941,7 @@
         <v>166</v>
       </c>
       <c r="F335" s="71" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G335" s="139"/>
       <c r="H335" s="53"/>
@@ -7938,7 +7956,7 @@
         <v>219</v>
       </c>
       <c r="F336" s="71" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G336" s="139"/>
       <c r="H336" s="53"/>
@@ -7953,7 +7971,7 @@
         <v>39</v>
       </c>
       <c r="F337" s="71" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G337" s="139"/>
       <c r="H337" s="53"/>
@@ -8016,33 +8034,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="E215:E218"/>
-    <mergeCell ref="E219:E222"/>
-    <mergeCell ref="E223:E226"/>
-    <mergeCell ref="E227:E230"/>
-    <mergeCell ref="E239:E242"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="E231:E234"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="G212:G213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="M103:P103"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="H106:H107"/>
     <mergeCell ref="D108:D109"/>
     <mergeCell ref="E108:E109"/>
     <mergeCell ref="G108:G109"/>
     <mergeCell ref="H108:H109"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="M103:P103"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="G212:G213"/>
-    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="E239:E242"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="E231:E234"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="E215:E218"/>
+    <mergeCell ref="E219:E222"/>
+    <mergeCell ref="E223:E226"/>
+    <mergeCell ref="E227:E230"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8057,7 +8075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AMN137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
@@ -8099,7 +8117,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>1</v>
@@ -8118,10 +8136,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -8133,10 +8151,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -8146,7 +8164,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="14"/>
       <c r="E8" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -8165,7 +8183,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F10" s="45" t="str">
         <f>F6</f>
@@ -8244,7 +8262,7 @@
         <v>220</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="9"/>
@@ -8286,10 +8304,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="9"/>
@@ -8303,10 +8321,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="9"/>
@@ -8357,10 +8375,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>419</v>
       </c>
       <c r="G22" s="21"/>
     </row>
@@ -8375,7 +8393,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="9"/>
@@ -8492,7 +8510,7 @@
         <v>138</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>33</v>
@@ -8508,7 +8526,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>34</v>
@@ -8527,10 +8545,10 @@
         <v>18</v>
       </c>
       <c r="E33" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>370</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="9"/>
@@ -8555,10 +8573,10 @@
         <v>19</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="9"/>
@@ -8630,10 +8648,10 @@
         <v>19</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -8643,10 +8661,10 @@
         <v>19</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G40" s="21"/>
     </row>
@@ -8656,10 +8674,10 @@
         <v>19</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G41" s="21"/>
     </row>
@@ -8741,10 +8759,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I49" s="9"/>
     </row>
@@ -8773,10 +8791,10 @@
         <v>25</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>3</v>
@@ -8852,16 +8870,16 @@
         <v>23</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F56" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" s="165" t="s">
         <v>398</v>
       </c>
-      <c r="G56" s="165" t="s">
+      <c r="H56" s="165" t="s">
         <v>399</v>
-      </c>
-      <c r="H56" s="165" t="s">
-        <v>400</v>
       </c>
       <c r="I56" s="9"/>
     </row>
@@ -8874,10 +8892,10 @@
         <v>23</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G57" s="166"/>
       <c r="H57" s="166"/>
@@ -8892,10 +8910,10 @@
         <v>23</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>410</v>
       </c>
       <c r="G58" s="167"/>
       <c r="H58" s="167"/>
@@ -8910,10 +8928,10 @@
         <v>23</v>
       </c>
       <c r="E59" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F59" s="41" t="s">
         <v>407</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>409</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -8934,7 +8952,7 @@
         <v>26</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F61" s="30" t="s">
         <v>95</v>
@@ -8953,7 +8971,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F62" s="30" t="s">
         <v>95</v>
@@ -8972,13 +8990,13 @@
         <v>27</v>
       </c>
       <c r="E63" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>431</v>
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="9"/>
@@ -9010,10 +9028,10 @@
         <v>29</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="17"/>
@@ -9034,7 +9052,7 @@
         <v>30</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>109</v>
@@ -9055,7 +9073,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>110</v>
@@ -9125,10 +9143,10 @@
         <v>32</v>
       </c>
       <c r="E72" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>388</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -9210,16 +9228,16 @@
         <v>36</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F77" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="H77" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9230,10 +9248,10 @@
         <v>37</v>
       </c>
       <c r="E78" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -9246,10 +9264,10 @@
         <v>37</v>
       </c>
       <c r="E79" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>435</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -9265,13 +9283,13 @@
         <v>129</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9286,13 +9304,13 @@
         <v>130</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9310,16 +9328,16 @@
         <v>39</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I83" s="9"/>
     </row>
@@ -9331,16 +9349,16 @@
         <v>39</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I84" s="9"/>
     </row>
@@ -9359,13 +9377,13 @@
         <v>40</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F86" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>393</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="9"/>
@@ -9378,7 +9396,7 @@
         <v>40</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>104</v>
@@ -9397,13 +9415,13 @@
         <v>40</v>
       </c>
       <c r="E88" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="9"/>
@@ -9452,10 +9470,10 @@
         <v>DDJ</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G93" s="44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>2</v>
@@ -9505,10 +9523,10 @@
         <v>26</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>24</v>
@@ -9602,7 +9620,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="11"/>
       <c r="F102" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -9625,7 +9643,7 @@
         <v>+Shift1</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9636,10 +9654,10 @@
         <v>41</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
@@ -9652,10 +9670,10 @@
         <v>42</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
@@ -9668,10 +9686,10 @@
         <v>43</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
@@ -9685,13 +9703,13 @@
         <v>44</v>
       </c>
       <c r="E107" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="G107" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>465</v>
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="33"/>
@@ -9704,13 +9722,13 @@
         <v>44</v>
       </c>
       <c r="E108" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="F108" s="16" t="s">
-        <v>466</v>
-      </c>
       <c r="G108" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H108" s="17"/>
       <c r="I108" s="33"/>
@@ -9734,16 +9752,16 @@
         <v>45</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G110" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="H110" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="I110" s="9"/>
     </row>
@@ -9755,16 +9773,16 @@
         <v>46</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I111" s="9"/>
     </row>
@@ -9776,16 +9794,16 @@
         <v>47</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G112" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="H112" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="I112" s="9"/>
     </row>
@@ -9797,14 +9815,14 @@
         <v>48</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G113" s="17"/>
       <c r="H113" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I113" s="9"/>
     </row>
@@ -9844,7 +9862,7 @@
       <c r="D117" s="42"/>
       <c r="E117" s="43"/>
       <c r="F117" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G117" s="43"/>
       <c r="H117" s="9"/>
@@ -9879,7 +9897,7 @@
         <v>218</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G119" s="24" t="s">
         <v>67</v>
@@ -9996,7 +10014,7 @@
     </row>
     <row r="130" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E130" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10032,7 +10050,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -10052,7 +10070,7 @@
   <sheetData>
     <row r="5" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B5" s="50" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -10072,7 +10090,7 @@
   <sheetData>
     <row r="6" spans="2:2" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B6" s="50" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -10083,10 +10101,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E66"/>
+  <dimension ref="A2:E70"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10108,11 +10126,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
-        <f>B36</f>
+        <f>B40</f>
         <v>number</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f t="shared" ref="C5:E5" si="0">C36</f>
+        <f t="shared" ref="C5:E5" si="0">C40</f>
         <v>DDJ-1000</v>
       </c>
       <c r="D5" t="str">
@@ -10129,444 +10147,465 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>278</v>
+        <v>634</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>633</v>
       </c>
       <c r="E6" t="s">
         <v>295</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>635</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="D8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" t="s">
-        <v>300</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>302</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>308</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E26" t="s">
-        <v>271</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" t="str">
-        <f>C27</f>
-        <v>4 beat loop</v>
-      </c>
-      <c r="E27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="str">
+        <f>C31</f>
+        <v>4 beat loop</v>
+      </c>
+      <c r="E31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>37</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D34" t="s">
         <v>280</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" t="str">
-        <f>B20</f>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="str">
+        <f>B24</f>
         <v>number</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="str">
-        <f>D20</f>
+      <c r="D40" t="str">
+        <f>D24</f>
         <v>Main function</v>
       </c>
-      <c r="E36" t="str">
-        <f>E20</f>
+      <c r="E40" t="str">
+        <f>E24</f>
         <v>+shift</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41">
         <v>34</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40">
+      <c r="D41" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>285</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>287</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>40</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
         <v>284</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E46" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>34</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D49" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>45</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52">
         <v>43</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="str">
-        <f>B36</f>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="str">
+        <f>B40</f>
         <v>number</v>
       </c>
-      <c r="C56" s="5" t="str">
-        <f t="shared" ref="C56:E56" si="1">C36</f>
+      <c r="C60" s="5" t="str">
+        <f t="shared" ref="C60:E60" si="1">C40</f>
         <v>DDJ-1000</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D60" t="str">
         <f t="shared" si="1"/>
         <v>Main function</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="1"/>
         <v>+shift</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>15</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D57" t="s">
-        <v>319</v>
-      </c>
-      <c r="E57" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <v>16</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D58" t="s">
-        <v>321</v>
-      </c>
-      <c r="E58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>17</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D59" t="s">
-        <v>322</v>
-      </c>
-      <c r="E59" t="s">
-        <v>324</v>
-      </c>
-    </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>317</v>
+        <v>318</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" t="s">
+        <v>320</v>
+      </c>
+      <c r="E62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
         <v>7</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D62" t="s">
-        <v>318</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66">
+    <row r="70" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>5</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E70" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B34" r:id="rId4"/>
-    <hyperlink ref="B54" r:id="rId5"/>
+    <hyperlink ref="B38" r:id="rId4"/>
+    <hyperlink ref="B58" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
